--- a/stock_data.xlsx
+++ b/stock_data.xlsx
@@ -7,18 +7,22 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Returns Close" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mean Returns Close" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variance Close" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Covariance Matrix Close" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Returns high" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mean Returns high" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variance high" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Covariance Matrix high" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Returns low" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mean Returns low" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variance low" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Covariance Matrix low" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Open Prices" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Open Mean Returns" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Open Variance" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Open Covariance Matrix" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="High Prices" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="High Mean Returns" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="High Variance" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="High Covariance Matrix" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Low Prices" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Low Mean Returns" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Low Variance" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Low Covariance Matrix" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Close Prices" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Close Mean Returns" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Close Variance" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Close Covariance Matrix" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -442,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,17 +467,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>META</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>NFLX</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>SONY</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -484,232 +488,962 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44592</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+        <v>43131</v>
+      </c>
+      <c r="B2" t="n">
+        <v>41.71749877929688</v>
+      </c>
+      <c r="C2" t="n">
+        <v>188.3699951171875</v>
+      </c>
+      <c r="D2" t="n">
+        <v>281.9400024414062</v>
+      </c>
+      <c r="E2" t="n">
+        <v>47.93000030517578</v>
+      </c>
+      <c r="F2" t="n">
+        <v>23.16733360290527</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44620</v>
+        <v>43159</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.05406593880116051</v>
+        <v>44.81499862670898</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02667251826558847</v>
+        <v>182.3000030517578</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.001821759846626581</v>
+        <v>293.1000061035156</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.03721186930279574</v>
+        <v>50.83000183105469</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0707681586632628</v>
+        <v>23.50466728210449</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44651</v>
+        <v>43190</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05747351972287063</v>
+        <v>41.95249938964844</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06143728503001578</v>
+        <v>155.1499938964844</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02969485360908974</v>
+        <v>287</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0318615602347907</v>
+        <v>48.20000076293945</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2380088093327557</v>
+        <v>17.09933280944824</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44681</v>
+        <v>43220</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.09713095934407601</v>
+        <v>40.53250122070312</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2375250931362105</v>
+        <v>173.7899932861328</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1794668555643626</v>
+        <v>311.0700073242188</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.09986698977276831</v>
+        <v>45.7400016784668</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1919451098216471</v>
+        <v>19.57399940490723</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44712</v>
+        <v>43251</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.05449602363070416</v>
+        <v>46.80500030517578</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.03276431760316645</v>
+        <v>187.8699951171875</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.003045285814385124</v>
+        <v>353.7999877929688</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.01807723847111142</v>
+        <v>47.25</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1291974857378614</v>
+        <v>19.1473331451416</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44742</v>
+        <v>43281</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.08142969751498885</v>
+        <v>46.5724983215332</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1164592126224129</v>
+        <v>197.3200073242188</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.042184592019335</v>
+        <v>399.1900024414062</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.05532052972580803</v>
+        <v>51.36999893188477</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1118877412230367</v>
+        <v>23.55533218383789</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44773</v>
+        <v>43312</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1886336450159414</v>
+        <v>47.57500076293945</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2705959712975006</v>
+        <v>170.6699981689453</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06751835422466801</v>
+        <v>331.510009765625</v>
       </c>
       <c r="E8" t="n">
-        <v>0.09309652695330706</v>
+        <v>54.61999893188477</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3237652643408195</v>
+        <v>19.48333358764648</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44804</v>
+        <v>43343</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.0312079470025568</v>
+        <v>56.62749862670898</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.06061504624052039</v>
+        <v>177.1499938964844</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.06963547537286929</v>
+        <v>370.6600036621094</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.06666302242408051</v>
+        <v>56.84999847412109</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.07248867234513756</v>
+        <v>20.13333320617676</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44834</v>
+        <v>43373</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.120977045512956</v>
+        <v>56.1974983215332</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1086218900978376</v>
+        <v>168.3300018310547</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1161522782575936</v>
+        <v>379.239990234375</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1092668882821547</v>
+        <v>61</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.03758929611475259</v>
+        <v>18.01733207702637</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44865</v>
+        <v>43404</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1095512974855466</v>
+        <v>54.22000122070312</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.09345130582826322</v>
+        <v>155</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.01191844612088166</v>
+        <v>297.7699890136719</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.003306082195028481</v>
+        <v>54.27999877929688</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.142167791569716</v>
+        <v>22.16933250427246</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44895</v>
+        <v>43434</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.03302745948633246</v>
+        <v>45.0724983215332</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.05759470309709913</v>
+        <v>138.2599945068359</v>
       </c>
       <c r="D12" t="n">
-        <v>0.06856412634716214</v>
+        <v>288</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1022229581789982</v>
+        <v>52.86999893188477</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1443262604679527</v>
+        <v>22.78866767883301</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44926</v>
+        <v>43465</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.1222725076650432</v>
+        <v>39.63249969482422</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1298943525647971</v>
+        <v>134.4499969482422</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1263490917590525</v>
+        <v>260.1600036621094</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.06004539505712314</v>
+        <v>48.72999954223633</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.3673343490707852</v>
+        <v>22.51933288574219</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>43496</v>
+      </c>
+      <c r="B14" t="n">
+        <v>41.52750015258789</v>
+      </c>
+      <c r="C14" t="n">
+        <v>165.6000061035156</v>
+      </c>
+      <c r="D14" t="n">
+        <v>339.6799926757812</v>
+      </c>
+      <c r="E14" t="n">
+        <v>50.04000091552734</v>
+      </c>
+      <c r="F14" t="n">
+        <v>20.0666675567627</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>43524</v>
+      </c>
+      <c r="B15" t="n">
+        <v>43.58000183105469</v>
+      </c>
+      <c r="C15" t="n">
+        <v>162.3699951171875</v>
+      </c>
+      <c r="D15" t="n">
+        <v>362.4700012207031</v>
+      </c>
+      <c r="E15" t="n">
+        <v>48.20999908447266</v>
+      </c>
+      <c r="F15" t="n">
+        <v>21.26133346557617</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>43555</v>
+      </c>
+      <c r="B16" t="n">
+        <v>47.45750045776367</v>
+      </c>
+      <c r="C16" t="n">
+        <v>166.3899993896484</v>
+      </c>
+      <c r="D16" t="n">
+        <v>357.1600036621094</v>
+      </c>
+      <c r="E16" t="n">
+        <v>42.29999923706055</v>
+      </c>
+      <c r="F16" t="n">
+        <v>18.57999992370605</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>43585</v>
+      </c>
+      <c r="B17" t="n">
+        <v>50.76499938964844</v>
+      </c>
+      <c r="C17" t="n">
+        <v>194.1900024414062</v>
+      </c>
+      <c r="D17" t="n">
+        <v>369.5599975585938</v>
+      </c>
+      <c r="E17" t="n">
+        <v>50.13000106811523</v>
+      </c>
+      <c r="F17" t="n">
+        <v>16.13733291625977</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>43616</v>
+      </c>
+      <c r="B18" t="n">
+        <v>44.05749893188477</v>
+      </c>
+      <c r="C18" t="n">
+        <v>180.2799987792969</v>
+      </c>
+      <c r="D18" t="n">
+        <v>347.2200012207031</v>
+      </c>
+      <c r="E18" t="n">
+        <v>47.97999954223633</v>
+      </c>
+      <c r="F18" t="n">
+        <v>12.34000015258789</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>43646</v>
+      </c>
+      <c r="B19" t="n">
+        <v>49.66999816894531</v>
+      </c>
+      <c r="C19" t="n">
+        <v>190.5500030517578</v>
+      </c>
+      <c r="D19" t="n">
+        <v>370.260009765625</v>
+      </c>
+      <c r="E19" t="n">
+        <v>52.84000015258789</v>
+      </c>
+      <c r="F19" t="n">
+        <v>14.73266696929932</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>43677</v>
+      </c>
+      <c r="B20" t="n">
+        <v>54.10499954223633</v>
+      </c>
+      <c r="C20" t="n">
+        <v>196.9499969482422</v>
+      </c>
+      <c r="D20" t="n">
+        <v>325.1600036621094</v>
+      </c>
+      <c r="E20" t="n">
+        <v>57</v>
+      </c>
+      <c r="F20" t="n">
+        <v>16.20000076293945</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>43708</v>
+      </c>
+      <c r="B21" t="n">
+        <v>52.54000091552734</v>
+      </c>
+      <c r="C21" t="n">
+        <v>186.7799987792969</v>
+      </c>
+      <c r="D21" t="n">
+        <v>298.7799987792969</v>
+      </c>
+      <c r="E21" t="n">
+        <v>57.11000061035156</v>
+      </c>
+      <c r="F21" t="n">
+        <v>15.27666664123535</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>43738</v>
+      </c>
+      <c r="B22" t="n">
+        <v>55.22499847412109</v>
+      </c>
+      <c r="C22" t="n">
+        <v>177.8699951171875</v>
+      </c>
+      <c r="D22" t="n">
+        <v>264</v>
+      </c>
+      <c r="E22" t="n">
+        <v>58.4900016784668</v>
+      </c>
+      <c r="F22" t="n">
+        <v>16.20000076293945</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>43769</v>
+      </c>
+      <c r="B23" t="n">
+        <v>61.81000137329102</v>
+      </c>
+      <c r="C23" t="n">
+        <v>196.6999969482422</v>
+      </c>
+      <c r="D23" t="n">
+        <v>291</v>
+      </c>
+      <c r="E23" t="n">
+        <v>61.08000183105469</v>
+      </c>
+      <c r="F23" t="n">
+        <v>20.87333297729492</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>43799</v>
+      </c>
+      <c r="B24" t="n">
+        <v>66.65000152587891</v>
+      </c>
+      <c r="C24" t="n">
+        <v>201.6000061035156</v>
+      </c>
+      <c r="D24" t="n">
+        <v>315.7799987792969</v>
+      </c>
+      <c r="E24" t="n">
+        <v>63.2599983215332</v>
+      </c>
+      <c r="F24" t="n">
+        <v>22.07399940490723</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>43830</v>
+      </c>
+      <c r="B25" t="n">
+        <v>72.48249816894531</v>
+      </c>
+      <c r="C25" t="n">
+        <v>204</v>
+      </c>
+      <c r="D25" t="n">
+        <v>322</v>
+      </c>
+      <c r="E25" t="n">
+        <v>67.72000122070312</v>
+      </c>
+      <c r="F25" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>43861</v>
+      </c>
+      <c r="B26" t="n">
+        <v>80.23249816894531</v>
+      </c>
+      <c r="C26" t="n">
+        <v>208.4299926757812</v>
+      </c>
+      <c r="D26" t="n">
+        <v>347.3900146484375</v>
+      </c>
+      <c r="E26" t="n">
+        <v>70.98999786376953</v>
+      </c>
+      <c r="F26" t="n">
+        <v>42.66666793823242</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>43890</v>
+      </c>
+      <c r="B27" t="n">
+        <v>64.31500244140625</v>
+      </c>
+      <c r="C27" t="n">
+        <v>182.6999969482422</v>
+      </c>
+      <c r="D27" t="n">
+        <v>364.2099914550781</v>
+      </c>
+      <c r="E27" t="n">
+        <v>59.4900016784668</v>
+      </c>
+      <c r="F27" t="n">
+        <v>41.97999954223633</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>43921</v>
+      </c>
+      <c r="B28" t="n">
+        <v>63.90000152587891</v>
+      </c>
+      <c r="C28" t="n">
+        <v>165.4799957275391</v>
+      </c>
+      <c r="D28" t="n">
+        <v>367.9299926757812</v>
+      </c>
+      <c r="E28" t="n">
+        <v>59.27000045776367</v>
+      </c>
+      <c r="F28" t="n">
+        <v>33.41666793823242</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>43951</v>
+      </c>
+      <c r="B29" t="n">
+        <v>72.48999786376953</v>
+      </c>
+      <c r="C29" t="n">
+        <v>206.9199981689453</v>
+      </c>
+      <c r="D29" t="n">
+        <v>410.3099975585938</v>
+      </c>
+      <c r="E29" t="n">
+        <v>64.16000366210938</v>
+      </c>
+      <c r="F29" t="n">
+        <v>57.01266860961914</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B30" t="n">
+        <v>79.8125</v>
+      </c>
+      <c r="C30" t="n">
+        <v>225.1999969482422</v>
+      </c>
+      <c r="D30" t="n">
+        <v>417.4599914550781</v>
+      </c>
+      <c r="E30" t="n">
+        <v>64.19999694824219</v>
+      </c>
+      <c r="F30" t="n">
+        <v>53.91666793823242</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>44012</v>
+      </c>
+      <c r="B31" t="n">
+        <v>90.01999664306641</v>
+      </c>
+      <c r="C31" t="n">
+        <v>220.5899963378906</v>
+      </c>
+      <c r="D31" t="n">
+        <v>450.0199890136719</v>
+      </c>
+      <c r="E31" t="n">
+        <v>68.62999725341797</v>
+      </c>
+      <c r="F31" t="n">
+        <v>67.09999847412109</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B32" t="n">
+        <v>102.8850021362305</v>
+      </c>
+      <c r="C32" t="n">
+        <v>255.8200073242188</v>
+      </c>
+      <c r="D32" t="n">
+        <v>488.2900085449219</v>
+      </c>
+      <c r="E32" t="n">
+        <v>76.98000335693359</v>
+      </c>
+      <c r="F32" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>44074</v>
+      </c>
+      <c r="B33" t="n">
+        <v>127.5800018310547</v>
+      </c>
+      <c r="C33" t="n">
+        <v>293.9500122070312</v>
+      </c>
+      <c r="D33" t="n">
+        <v>521.1599731445312</v>
+      </c>
+      <c r="E33" t="n">
+        <v>78.65000152587891</v>
+      </c>
+      <c r="F33" t="n">
+        <v>148.2033386230469</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>44104</v>
+      </c>
+      <c r="B34" t="n">
+        <v>113.7900009155273</v>
+      </c>
+      <c r="C34" t="n">
+        <v>261.9800109863281</v>
+      </c>
+      <c r="D34" t="n">
+        <v>492.5700073242188</v>
+      </c>
+      <c r="E34" t="n">
+        <v>76.75</v>
+      </c>
+      <c r="F34" t="n">
+        <v>140.4400024414062</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>44135</v>
+      </c>
+      <c r="B35" t="n">
+        <v>111.0599975585938</v>
+      </c>
+      <c r="C35" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="D35" t="n">
+        <v>502.010009765625</v>
+      </c>
+      <c r="E35" t="n">
+        <v>83.25</v>
+      </c>
+      <c r="F35" t="n">
+        <v>135.6333312988281</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>44165</v>
+      </c>
+      <c r="B36" t="n">
+        <v>116.9700012207031</v>
+      </c>
+      <c r="C36" t="n">
+        <v>276.0299987792969</v>
+      </c>
+      <c r="D36" t="n">
+        <v>490.0799865722656</v>
+      </c>
+      <c r="E36" t="n">
+        <v>93.65000152587891</v>
+      </c>
+      <c r="F36" t="n">
+        <v>200.7366638183594</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B37" t="n">
+        <v>134.0800018310547</v>
+      </c>
+      <c r="C37" t="n">
+        <v>272</v>
+      </c>
+      <c r="D37" t="n">
+        <v>525.530029296875</v>
+      </c>
+      <c r="E37" t="n">
+        <v>100.9300003051758</v>
+      </c>
+      <c r="F37" t="n">
+        <v>233.3300018310547</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>44227</v>
+      </c>
+      <c r="B38" t="n">
+        <v>135.8300018310547</v>
+      </c>
+      <c r="C38" t="n">
+        <v>265.2999877929688</v>
+      </c>
+      <c r="D38" t="n">
+        <v>538</v>
+      </c>
+      <c r="E38" t="n">
+        <v>97</v>
+      </c>
+      <c r="F38" t="n">
+        <v>276.6666564941406</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>44255</v>
+      </c>
+      <c r="B39" t="n">
+        <v>122.5899963378906</v>
+      </c>
+      <c r="C39" t="n">
+        <v>256.4700012207031</v>
+      </c>
+      <c r="D39" t="n">
+        <v>546.510009765625</v>
+      </c>
+      <c r="E39" t="n">
+        <v>106.9300003051758</v>
+      </c>
+      <c r="F39" t="n">
+        <v>233.3333282470703</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="B40" t="n">
+        <v>121.6500015258789</v>
+      </c>
+      <c r="C40" t="n">
+        <v>289.989990234375</v>
+      </c>
+      <c r="D40" t="n">
+        <v>515.6699829101562</v>
+      </c>
+      <c r="E40" t="n">
+        <v>105.5599975585938</v>
+      </c>
+      <c r="F40" t="n">
+        <v>215.5399932861328</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>44316</v>
+      </c>
+      <c r="B41" t="n">
+        <v>131.7799987792969</v>
+      </c>
+      <c r="C41" t="n">
+        <v>326.1400146484375</v>
+      </c>
+      <c r="D41" t="n">
+        <v>505</v>
+      </c>
+      <c r="E41" t="n">
+        <v>101.3300018310547</v>
+      </c>
+      <c r="F41" t="n">
+        <v>222.5299987792969</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>44347</v>
+      </c>
+      <c r="B42" t="n">
+        <v>125.5699996948242</v>
+      </c>
+      <c r="C42" t="n">
+        <v>331</v>
+      </c>
+      <c r="D42" t="n">
+        <v>504.3999938964844</v>
+      </c>
+      <c r="E42" t="n">
+        <v>100.0899963378906</v>
+      </c>
+      <c r="F42" t="n">
+        <v>209.5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="B43" t="n">
+        <v>136.1699981689453</v>
+      </c>
+      <c r="C43" t="n">
+        <v>352.1700134277344</v>
+      </c>
+      <c r="D43" t="n">
+        <v>534.0599975585938</v>
+      </c>
+      <c r="E43" t="n">
+        <v>97.91999816894531</v>
+      </c>
+      <c r="F43" t="n">
+        <v>226.5899963378906</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>44408</v>
+      </c>
+      <c r="B44" t="n">
+        <v>144.3800048828125</v>
+      </c>
+      <c r="C44" t="n">
+        <v>354</v>
+      </c>
+      <c r="D44" t="n">
+        <v>512.6900024414062</v>
+      </c>
+      <c r="E44" t="n">
+        <v>104</v>
+      </c>
+      <c r="F44" t="n">
+        <v>223.9199981689453</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>44439</v>
+      </c>
+      <c r="B45" t="n">
+        <v>152.6600036621094</v>
+      </c>
+      <c r="C45" t="n">
+        <v>379.9500122070312</v>
+      </c>
+      <c r="D45" t="n">
+        <v>566.1199951171875</v>
+      </c>
+      <c r="E45" t="n">
+        <v>102.9599990844727</v>
+      </c>
+      <c r="F45" t="n">
+        <v>244.3333282470703</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44469</v>
+      </c>
+      <c r="B46" t="n">
+        <v>143.6600036621094</v>
+      </c>
+      <c r="C46" t="n">
+        <v>340.4500122070312</v>
+      </c>
+      <c r="D46" t="n">
+        <v>608.0499877929688</v>
+      </c>
+      <c r="E46" t="n">
+        <v>111.5</v>
+      </c>
+      <c r="F46" t="n">
+        <v>260.3333435058594</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>44500</v>
+      </c>
+      <c r="B47" t="n">
+        <v>147.2200012207031</v>
+      </c>
+      <c r="C47" t="n">
+        <v>320.1900024414062</v>
+      </c>
+      <c r="D47" t="n">
+        <v>673.0599975585938</v>
+      </c>
+      <c r="E47" t="n">
+        <v>115.879997253418</v>
+      </c>
+      <c r="F47" t="n">
+        <v>360.6199951171875</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="B48" t="n">
+        <v>159.9900054931641</v>
+      </c>
+      <c r="C48" t="n">
+        <v>335</v>
+      </c>
+      <c r="D48" t="n">
+        <v>668.2000122070312</v>
+      </c>
+      <c r="E48" t="n">
+        <v>122.3399963378906</v>
+      </c>
+      <c r="F48" t="n">
+        <v>381.4566650390625</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>44561</v>
+      </c>
+      <c r="B49" t="n">
+        <v>179.4700012207031</v>
+      </c>
+      <c r="C49" t="n">
+        <v>344</v>
+      </c>
+      <c r="D49" t="n">
+        <v>612.989990234375</v>
+      </c>
+      <c r="E49" t="n">
+        <v>126.25</v>
+      </c>
+      <c r="F49" t="n">
+        <v>353.7766723632812</v>
       </c>
     </row>
   </sheetData>
@@ -743,37 +1477,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.02119940589426973</v>
+        <v>0.03558982918661738</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>META</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.04083852144616631</v>
+        <v>0.01726362388924104</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>NFLX</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.03531449674777594</v>
+        <v>0.02145290112226769</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>SONY</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02137486379492084</v>
+        <v>0.02316825470453859</v>
       </c>
     </row>
     <row r="6">
@@ -783,7 +1517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.05909041364828777</v>
+        <v>0.07804751130910247</v>
       </c>
     </row>
   </sheetData>
@@ -817,37 +1551,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01007479081682683</v>
+        <v>0.008589056678532509</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>META</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01983220521726636</v>
+        <v>0.008645500272320363</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>NFLX</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.005013528546783361</v>
+        <v>0.008012119020173821</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>SONY</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.003964252523531353</v>
+        <v>0.004797819163161654</v>
       </c>
     </row>
     <row r="6">
@@ -857,7 +1591,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03900422676624173</v>
+        <v>0.04307853561246969</v>
       </c>
     </row>
   </sheetData>
@@ -887,17 +1621,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>META</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>NFLX</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>SONY</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -913,85 +1647,85 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01007479081682684</v>
+        <v>0.008589056678532511</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01081317993529012</v>
+        <v>0.00504809556689673</v>
       </c>
       <c r="D2" t="n">
-        <v>0.005020887835041126</v>
+        <v>0.002958909290062684</v>
       </c>
       <c r="E2" t="n">
-        <v>0.004766374811913419</v>
+        <v>0.002809765852175523</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01381502106520356</v>
+        <v>0.009134419181346221</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>META</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01081317993529012</v>
+        <v>0.00504809556689673</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01983220521726636</v>
+        <v>0.008645500272320361</v>
       </c>
       <c r="D3" t="n">
-        <v>0.008172765583330084</v>
+        <v>0.004535627515864299</v>
       </c>
       <c r="E3" t="n">
-        <v>0.006680148716717352</v>
+        <v>0.002213063238951269</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02171629011131133</v>
+        <v>0.006515516972742314</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>NFLX</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.005020887835041126</v>
+        <v>0.002958909290062684</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008172765583330084</v>
+        <v>0.004535627515864299</v>
       </c>
       <c r="D4" t="n">
-        <v>0.005013528546783361</v>
+        <v>0.008012119020173821</v>
       </c>
       <c r="E4" t="n">
-        <v>0.003785270924735378</v>
+        <v>0.001829479139492446</v>
       </c>
       <c r="F4" t="n">
-        <v>0.008579916004038591</v>
+        <v>0.005557204581293783</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>SONY</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.004766374811913419</v>
+        <v>0.002809765852175523</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006680148716717352</v>
+        <v>0.002213063238951269</v>
       </c>
       <c r="D5" t="n">
-        <v>0.003785270924735378</v>
+        <v>0.001829479139492446</v>
       </c>
       <c r="E5" t="n">
-        <v>0.003964252523531353</v>
+        <v>0.004797819163161653</v>
       </c>
       <c r="F5" t="n">
-        <v>0.006454589303046962</v>
+        <v>0.003545036809877096</v>
       </c>
     </row>
     <row r="6">
@@ -1001,19 +1735,1334 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01381502106520356</v>
+        <v>0.009134419181346221</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02171629011131133</v>
+        <v>0.006515516972742314</v>
       </c>
       <c r="D6" t="n">
-        <v>0.008579916004038591</v>
+        <v>0.005557204581293783</v>
       </c>
       <c r="E6" t="n">
-        <v>0.006454589303046962</v>
+        <v>0.003545036809877096</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03900422676624172</v>
+        <v>0.04307853561246967</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>META</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>SONY</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>43131</v>
+      </c>
+      <c r="B2" t="n">
+        <v>41.85749816894531</v>
+      </c>
+      <c r="C2" t="n">
+        <v>186.8899993896484</v>
+      </c>
+      <c r="D2" t="n">
+        <v>270.2999877929688</v>
+      </c>
+      <c r="E2" t="n">
+        <v>47.93999862670898</v>
+      </c>
+      <c r="F2" t="n">
+        <v>23.62066650390625</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>43159</v>
+      </c>
+      <c r="B3" t="n">
+        <v>44.52999877929688</v>
+      </c>
+      <c r="C3" t="n">
+        <v>178.3200073242188</v>
+      </c>
+      <c r="D3" t="n">
+        <v>291.3800048828125</v>
+      </c>
+      <c r="E3" t="n">
+        <v>50.45999908447266</v>
+      </c>
+      <c r="F3" t="n">
+        <v>22.87066650390625</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>43190</v>
+      </c>
+      <c r="B4" t="n">
+        <v>41.94499969482422</v>
+      </c>
+      <c r="C4" t="n">
+        <v>159.7899932861328</v>
+      </c>
+      <c r="D4" t="n">
+        <v>295.3500061035156</v>
+      </c>
+      <c r="E4" t="n">
+        <v>48.34000015258789</v>
+      </c>
+      <c r="F4" t="n">
+        <v>17.74200057983398</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>43220</v>
+      </c>
+      <c r="B5" t="n">
+        <v>41.31499862670898</v>
+      </c>
+      <c r="C5" t="n">
+        <v>172</v>
+      </c>
+      <c r="D5" t="n">
+        <v>312.4599914550781</v>
+      </c>
+      <c r="E5" t="n">
+        <v>45.83000183105469</v>
+      </c>
+      <c r="F5" t="n">
+        <v>19.59333229064941</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>43251</v>
+      </c>
+      <c r="B6" t="n">
+        <v>46.71749877929688</v>
+      </c>
+      <c r="C6" t="n">
+        <v>191.7799987792969</v>
+      </c>
+      <c r="D6" t="n">
+        <v>351.6000061035156</v>
+      </c>
+      <c r="E6" t="n">
+        <v>47.09000015258789</v>
+      </c>
+      <c r="F6" t="n">
+        <v>18.98200035095215</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>43281</v>
+      </c>
+      <c r="B7" t="n">
+        <v>46.27750015258789</v>
+      </c>
+      <c r="C7" t="n">
+        <v>194.3200073242188</v>
+      </c>
+      <c r="D7" t="n">
+        <v>391.4299926757812</v>
+      </c>
+      <c r="E7" t="n">
+        <v>51.2599983215332</v>
+      </c>
+      <c r="F7" t="n">
+        <v>22.86333274841309</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>43312</v>
+      </c>
+      <c r="B8" t="n">
+        <v>47.5724983215332</v>
+      </c>
+      <c r="C8" t="n">
+        <v>172.5800018310547</v>
+      </c>
+      <c r="D8" t="n">
+        <v>337.4500122070312</v>
+      </c>
+      <c r="E8" t="n">
+        <v>54.02000045776367</v>
+      </c>
+      <c r="F8" t="n">
+        <v>19.87599945068359</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>43343</v>
+      </c>
+      <c r="B9" t="n">
+        <v>56.90750122070312</v>
+      </c>
+      <c r="C9" t="n">
+        <v>175.7299957275391</v>
+      </c>
+      <c r="D9" t="n">
+        <v>367.6799926757812</v>
+      </c>
+      <c r="E9" t="n">
+        <v>56.83000183105469</v>
+      </c>
+      <c r="F9" t="n">
+        <v>20.11066627502441</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B10" t="n">
+        <v>56.43500137329102</v>
+      </c>
+      <c r="C10" t="n">
+        <v>164.4600067138672</v>
+      </c>
+      <c r="D10" t="n">
+        <v>374.1300048828125</v>
+      </c>
+      <c r="E10" t="n">
+        <v>60.65000152587891</v>
+      </c>
+      <c r="F10" t="n">
+        <v>17.65133285522461</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>43404</v>
+      </c>
+      <c r="B11" t="n">
+        <v>54.71500015258789</v>
+      </c>
+      <c r="C11" t="n">
+        <v>151.7899932861328</v>
+      </c>
+      <c r="D11" t="n">
+        <v>301.7799987792969</v>
+      </c>
+      <c r="E11" t="n">
+        <v>54.13000106811523</v>
+      </c>
+      <c r="F11" t="n">
+        <v>22.48800086975098</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>43434</v>
+      </c>
+      <c r="B12" t="n">
+        <v>44.64500045776367</v>
+      </c>
+      <c r="C12" t="n">
+        <v>140.6100006103516</v>
+      </c>
+      <c r="D12" t="n">
+        <v>286.1300048828125</v>
+      </c>
+      <c r="E12" t="n">
+        <v>52.81999969482422</v>
+      </c>
+      <c r="F12" t="n">
+        <v>23.36533355712891</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>43465</v>
+      </c>
+      <c r="B13" t="n">
+        <v>39.43500137329102</v>
+      </c>
+      <c r="C13" t="n">
+        <v>131.0899963378906</v>
+      </c>
+      <c r="D13" t="n">
+        <v>267.6600036621094</v>
+      </c>
+      <c r="E13" t="n">
+        <v>48.27999877929688</v>
+      </c>
+      <c r="F13" t="n">
+        <v>22.18666648864746</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>43496</v>
+      </c>
+      <c r="B14" t="n">
+        <v>41.61000061035156</v>
+      </c>
+      <c r="C14" t="n">
+        <v>166.6900024414062</v>
+      </c>
+      <c r="D14" t="n">
+        <v>339.5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>50.11999893188477</v>
+      </c>
+      <c r="F14" t="n">
+        <v>20.4680004119873</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>43524</v>
+      </c>
+      <c r="B15" t="n">
+        <v>43.28749847412109</v>
+      </c>
+      <c r="C15" t="n">
+        <v>161.4499969482422</v>
+      </c>
+      <c r="D15" t="n">
+        <v>358.1000061035156</v>
+      </c>
+      <c r="E15" t="n">
+        <v>47.9900016784668</v>
+      </c>
+      <c r="F15" t="n">
+        <v>21.32533264160156</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>43555</v>
+      </c>
+      <c r="B16" t="n">
+        <v>47.48749923706055</v>
+      </c>
+      <c r="C16" t="n">
+        <v>166.6900024414062</v>
+      </c>
+      <c r="D16" t="n">
+        <v>356.5599975585938</v>
+      </c>
+      <c r="E16" t="n">
+        <v>42.2400016784668</v>
+      </c>
+      <c r="F16" t="n">
+        <v>18.65733337402344</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>43585</v>
+      </c>
+      <c r="B17" t="n">
+        <v>50.16749954223633</v>
+      </c>
+      <c r="C17" t="n">
+        <v>193.3999938964844</v>
+      </c>
+      <c r="D17" t="n">
+        <v>370.5400085449219</v>
+      </c>
+      <c r="E17" t="n">
+        <v>50.36999893188477</v>
+      </c>
+      <c r="F17" t="n">
+        <v>15.9126672744751</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>43616</v>
+      </c>
+      <c r="B18" t="n">
+        <v>43.76750183105469</v>
+      </c>
+      <c r="C18" t="n">
+        <v>177.4700012207031</v>
+      </c>
+      <c r="D18" t="n">
+        <v>343.2799987792969</v>
+      </c>
+      <c r="E18" t="n">
+        <v>48</v>
+      </c>
+      <c r="F18" t="n">
+        <v>12.3439998626709</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>43646</v>
+      </c>
+      <c r="B19" t="n">
+        <v>49.47999954223633</v>
+      </c>
+      <c r="C19" t="n">
+        <v>193</v>
+      </c>
+      <c r="D19" t="n">
+        <v>367.3200073242188</v>
+      </c>
+      <c r="E19" t="n">
+        <v>52.38999938964844</v>
+      </c>
+      <c r="F19" t="n">
+        <v>14.8973331451416</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>43677</v>
+      </c>
+      <c r="B20" t="n">
+        <v>53.2599983215332</v>
+      </c>
+      <c r="C20" t="n">
+        <v>194.2299957275391</v>
+      </c>
+      <c r="D20" t="n">
+        <v>322.989990234375</v>
+      </c>
+      <c r="E20" t="n">
+        <v>56.86000061035156</v>
+      </c>
+      <c r="F20" t="n">
+        <v>16.10733222961426</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>43708</v>
+      </c>
+      <c r="B21" t="n">
+        <v>52.18500137329102</v>
+      </c>
+      <c r="C21" t="n">
+        <v>185.6699981689453</v>
+      </c>
+      <c r="D21" t="n">
+        <v>293.75</v>
+      </c>
+      <c r="E21" t="n">
+        <v>56.90999984741211</v>
+      </c>
+      <c r="F21" t="n">
+        <v>15.0406665802002</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>43738</v>
+      </c>
+      <c r="B22" t="n">
+        <v>55.99250030517578</v>
+      </c>
+      <c r="C22" t="n">
+        <v>178.0800018310547</v>
+      </c>
+      <c r="D22" t="n">
+        <v>267.6199951171875</v>
+      </c>
+      <c r="E22" t="n">
+        <v>59.13000106811523</v>
+      </c>
+      <c r="F22" t="n">
+        <v>16.0580005645752</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>43769</v>
+      </c>
+      <c r="B23" t="n">
+        <v>62.18999862670898</v>
+      </c>
+      <c r="C23" t="n">
+        <v>191.6499938964844</v>
+      </c>
+      <c r="D23" t="n">
+        <v>287.4100036621094</v>
+      </c>
+      <c r="E23" t="n">
+        <v>60.83000183105469</v>
+      </c>
+      <c r="F23" t="n">
+        <v>20.99466705322266</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>43799</v>
+      </c>
+      <c r="B24" t="n">
+        <v>66.8125</v>
+      </c>
+      <c r="C24" t="n">
+        <v>201.6399993896484</v>
+      </c>
+      <c r="D24" t="n">
+        <v>314.6600036621094</v>
+      </c>
+      <c r="E24" t="n">
+        <v>63.47999954223633</v>
+      </c>
+      <c r="F24" t="n">
+        <v>21.99600028991699</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>43830</v>
+      </c>
+      <c r="B25" t="n">
+        <v>73.41249847412109</v>
+      </c>
+      <c r="C25" t="n">
+        <v>205.25</v>
+      </c>
+      <c r="D25" t="n">
+        <v>323.5700073242188</v>
+      </c>
+      <c r="E25" t="n">
+        <v>68</v>
+      </c>
+      <c r="F25" t="n">
+        <v>27.8886661529541</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>43861</v>
+      </c>
+      <c r="B26" t="n">
+        <v>77.37750244140625</v>
+      </c>
+      <c r="C26" t="n">
+        <v>201.9100036621094</v>
+      </c>
+      <c r="D26" t="n">
+        <v>345.0899963378906</v>
+      </c>
+      <c r="E26" t="n">
+        <v>70.18000030517578</v>
+      </c>
+      <c r="F26" t="n">
+        <v>43.37133407592773</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>43890</v>
+      </c>
+      <c r="B27" t="n">
+        <v>68.33999633789062</v>
+      </c>
+      <c r="C27" t="n">
+        <v>192.4700012207031</v>
+      </c>
+      <c r="D27" t="n">
+        <v>369.0299987792969</v>
+      </c>
+      <c r="E27" t="n">
+        <v>62.20000076293945</v>
+      </c>
+      <c r="F27" t="n">
+        <v>44.53266525268555</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>43921</v>
+      </c>
+      <c r="B28" t="n">
+        <v>63.5724983215332</v>
+      </c>
+      <c r="C28" t="n">
+        <v>166.8000030517578</v>
+      </c>
+      <c r="D28" t="n">
+        <v>375.5</v>
+      </c>
+      <c r="E28" t="n">
+        <v>59.18000030517578</v>
+      </c>
+      <c r="F28" t="n">
+        <v>34.93333435058594</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>43951</v>
+      </c>
+      <c r="B29" t="n">
+        <v>73.44999694824219</v>
+      </c>
+      <c r="C29" t="n">
+        <v>204.7100067138672</v>
+      </c>
+      <c r="D29" t="n">
+        <v>419.8500061035156</v>
+      </c>
+      <c r="E29" t="n">
+        <v>64.25</v>
+      </c>
+      <c r="F29" t="n">
+        <v>52.12533187866211</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B30" t="n">
+        <v>79.48500061035156</v>
+      </c>
+      <c r="C30" t="n">
+        <v>225.0899963378906</v>
+      </c>
+      <c r="D30" t="n">
+        <v>419.7300109863281</v>
+      </c>
+      <c r="E30" t="n">
+        <v>64.76000213623047</v>
+      </c>
+      <c r="F30" t="n">
+        <v>55.66666793823242</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>44012</v>
+      </c>
+      <c r="B31" t="n">
+        <v>91.19999694824219</v>
+      </c>
+      <c r="C31" t="n">
+        <v>227.0700073242188</v>
+      </c>
+      <c r="D31" t="n">
+        <v>455.0400085449219</v>
+      </c>
+      <c r="E31" t="n">
+        <v>69.12999725341797</v>
+      </c>
+      <c r="F31" t="n">
+        <v>71.98733520507812</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B32" t="n">
+        <v>106.2600021362305</v>
+      </c>
+      <c r="C32" t="n">
+        <v>253.6699981689453</v>
+      </c>
+      <c r="D32" t="n">
+        <v>488.8800048828125</v>
+      </c>
+      <c r="E32" t="n">
+        <v>77.95999908447266</v>
+      </c>
+      <c r="F32" t="n">
+        <v>95.38400268554688</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>44074</v>
+      </c>
+      <c r="B33" t="n">
+        <v>129.0399932861328</v>
+      </c>
+      <c r="C33" t="n">
+        <v>293.2000122070312</v>
+      </c>
+      <c r="D33" t="n">
+        <v>529.5599975585938</v>
+      </c>
+      <c r="E33" t="n">
+        <v>78.63999938964844</v>
+      </c>
+      <c r="F33" t="n">
+        <v>166.1066741943359</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>44104</v>
+      </c>
+      <c r="B34" t="n">
+        <v>115.8099975585938</v>
+      </c>
+      <c r="C34" t="n">
+        <v>261.8999938964844</v>
+      </c>
+      <c r="D34" t="n">
+        <v>500.0299987792969</v>
+      </c>
+      <c r="E34" t="n">
+        <v>76.75</v>
+      </c>
+      <c r="F34" t="n">
+        <v>143.0033264160156</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>44135</v>
+      </c>
+      <c r="B35" t="n">
+        <v>108.8600006103516</v>
+      </c>
+      <c r="C35" t="n">
+        <v>263.1099853515625</v>
+      </c>
+      <c r="D35" t="n">
+        <v>475.739990234375</v>
+      </c>
+      <c r="E35" t="n">
+        <v>83.66000366210938</v>
+      </c>
+      <c r="F35" t="n">
+        <v>129.3466644287109</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>44165</v>
+      </c>
+      <c r="B36" t="n">
+        <v>119.0500030517578</v>
+      </c>
+      <c r="C36" t="n">
+        <v>276.9700012207031</v>
+      </c>
+      <c r="D36" t="n">
+        <v>490.7000122070312</v>
+      </c>
+      <c r="E36" t="n">
+        <v>93.29000091552734</v>
+      </c>
+      <c r="F36" t="n">
+        <v>189.1999969482422</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B37" t="n">
+        <v>132.6900024414062</v>
+      </c>
+      <c r="C37" t="n">
+        <v>273.1600036621094</v>
+      </c>
+      <c r="D37" t="n">
+        <v>540.72998046875</v>
+      </c>
+      <c r="E37" t="n">
+        <v>101.0999984741211</v>
+      </c>
+      <c r="F37" t="n">
+        <v>235.2233276367188</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>44227</v>
+      </c>
+      <c r="B38" t="n">
+        <v>131.9600067138672</v>
+      </c>
+      <c r="C38" t="n">
+        <v>258.3299865722656</v>
+      </c>
+      <c r="D38" t="n">
+        <v>532.3900146484375</v>
+      </c>
+      <c r="E38" t="n">
+        <v>95.70999908447266</v>
+      </c>
+      <c r="F38" t="n">
+        <v>264.510009765625</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>44255</v>
+      </c>
+      <c r="B39" t="n">
+        <v>121.2600021362305</v>
+      </c>
+      <c r="C39" t="n">
+        <v>257.6199951171875</v>
+      </c>
+      <c r="D39" t="n">
+        <v>538.8499755859375</v>
+      </c>
+      <c r="E39" t="n">
+        <v>105.8099975585938</v>
+      </c>
+      <c r="F39" t="n">
+        <v>225.1666717529297</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="B40" t="n">
+        <v>122.1500015258789</v>
+      </c>
+      <c r="C40" t="n">
+        <v>294.5299987792969</v>
+      </c>
+      <c r="D40" t="n">
+        <v>521.6599731445312</v>
+      </c>
+      <c r="E40" t="n">
+        <v>106.0100021362305</v>
+      </c>
+      <c r="F40" t="n">
+        <v>222.6433258056641</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>44316</v>
+      </c>
+      <c r="B41" t="n">
+        <v>131.4600067138672</v>
+      </c>
+      <c r="C41" t="n">
+        <v>325.0799865722656</v>
+      </c>
+      <c r="D41" t="n">
+        <v>513.469970703125</v>
+      </c>
+      <c r="E41" t="n">
+        <v>100.1600036621094</v>
+      </c>
+      <c r="F41" t="n">
+        <v>236.4799957275391</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>44347</v>
+      </c>
+      <c r="B42" t="n">
+        <v>124.6100006103516</v>
+      </c>
+      <c r="C42" t="n">
+        <v>328.7300109863281</v>
+      </c>
+      <c r="D42" t="n">
+        <v>502.8099975585938</v>
+      </c>
+      <c r="E42" t="n">
+        <v>99.61000061035156</v>
+      </c>
+      <c r="F42" t="n">
+        <v>208.4066619873047</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="B43" t="n">
+        <v>136.9600067138672</v>
+      </c>
+      <c r="C43" t="n">
+        <v>347.7099914550781</v>
+      </c>
+      <c r="D43" t="n">
+        <v>528.2100219726562</v>
+      </c>
+      <c r="E43" t="n">
+        <v>97.22000122070312</v>
+      </c>
+      <c r="F43" t="n">
+        <v>226.5666656494141</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>44408</v>
+      </c>
+      <c r="B44" t="n">
+        <v>145.8600006103516</v>
+      </c>
+      <c r="C44" t="n">
+        <v>356.2999877929688</v>
+      </c>
+      <c r="D44" t="n">
+        <v>517.5700073242188</v>
+      </c>
+      <c r="E44" t="n">
+        <v>104.3000030517578</v>
+      </c>
+      <c r="F44" t="n">
+        <v>229.0666656494141</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>44439</v>
+      </c>
+      <c r="B45" t="n">
+        <v>151.8300018310547</v>
+      </c>
+      <c r="C45" t="n">
+        <v>379.3800048828125</v>
+      </c>
+      <c r="D45" t="n">
+        <v>569.1900024414062</v>
+      </c>
+      <c r="E45" t="n">
+        <v>103.4599990844727</v>
+      </c>
+      <c r="F45" t="n">
+        <v>245.2400054931641</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44469</v>
+      </c>
+      <c r="B46" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="C46" t="n">
+        <v>339.3900146484375</v>
+      </c>
+      <c r="D46" t="n">
+        <v>610.3400268554688</v>
+      </c>
+      <c r="E46" t="n">
+        <v>110.5800018310547</v>
+      </c>
+      <c r="F46" t="n">
+        <v>258.4933471679688</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>44500</v>
+      </c>
+      <c r="B47" t="n">
+        <v>149.8000030517578</v>
+      </c>
+      <c r="C47" t="n">
+        <v>323.5700073242188</v>
+      </c>
+      <c r="D47" t="n">
+        <v>690.3099975585938</v>
+      </c>
+      <c r="E47" t="n">
+        <v>115.7900009155273</v>
+      </c>
+      <c r="F47" t="n">
+        <v>371.3333435058594</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="B48" t="n">
+        <v>165.3000030517578</v>
+      </c>
+      <c r="C48" t="n">
+        <v>324.4599914550781</v>
+      </c>
+      <c r="D48" t="n">
+        <v>641.9000244140625</v>
+      </c>
+      <c r="E48" t="n">
+        <v>121.8499984741211</v>
+      </c>
+      <c r="F48" t="n">
+        <v>381.586669921875</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>44561</v>
+      </c>
+      <c r="B49" t="n">
+        <v>178.1999969482422</v>
+      </c>
+      <c r="C49" t="n">
+        <v>344.3599853515625</v>
+      </c>
+      <c r="D49" t="n">
+        <v>612.0900268554688</v>
+      </c>
+      <c r="E49" t="n">
+        <v>125.9199981689453</v>
+      </c>
+      <c r="F49" t="n">
+        <v>356.7799987792969</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.03534470153463463</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>META</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.01688968371050695</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.02098289580104978</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>SONY</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.02296901691668846</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0789564468579354</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.00831823816867871</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>META</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.008127798855834575</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.00709206225186263</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>SONY</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.00456369466719021</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.04690642737427227</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>META</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>SONY</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.008318238168678707</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.004950766301553514</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.003012765817475608</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.002589554516823502</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0107935939343443</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>META</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.004950766301553514</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.008127798855834572</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.003917040784358123</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.001996008768024079</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.006413879238164413</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.003012765817475608</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.003917040784358123</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.007092062251862627</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.001556598710838358</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.005788421676803287</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>SONY</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.002589554516823502</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.001996008768024079</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.001556598710838358</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.004563694667190209</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.003156230287765727</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0107935939343443</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.006413879238164413</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.005788421676803287</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.003156230287765727</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.04690642737427227</v>
       </c>
     </row>
   </sheetData>
@@ -1047,37 +3096,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.02172264697576903</v>
+        <v>0.03595363504819357</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>META</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.04347455878156386</v>
+        <v>0.01703152432506118</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>NFLX</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.03498149550674422</v>
+        <v>0.02065744845513082</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>SONY</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02023426998761585</v>
+        <v>0.02312872020485361</v>
       </c>
     </row>
     <row r="6">
@@ -1087,7 +3136,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.06417552648550699</v>
+        <v>0.0793487325776214</v>
       </c>
     </row>
   </sheetData>
@@ -1121,37 +3170,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.009930565891259917</v>
+        <v>0.009020258965311037</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>META</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01723678896664017</v>
+        <v>0.008735655844949945</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>NFLX</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006512787474878695</v>
+        <v>0.008216905478657244</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>SONY</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.00503728505327718</v>
+        <v>0.004708825346968605</v>
       </c>
     </row>
     <row r="6">
@@ -1161,7 +3210,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03698744111675701</v>
+        <v>0.04703696556064762</v>
       </c>
     </row>
   </sheetData>
@@ -1191,17 +3240,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>META</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>NFLX</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>SONY</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -1217,85 +3266,85 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.009930565891259917</v>
+        <v>0.009020258965311039</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009966347252183917</v>
+        <v>0.005264268783521719</v>
       </c>
       <c r="D2" t="n">
-        <v>0.005531920093455033</v>
+        <v>0.002932169405742967</v>
       </c>
       <c r="E2" t="n">
-        <v>0.005066206728656621</v>
+        <v>0.002943413966820485</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01389558546603102</v>
+        <v>0.009492131692863099</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>META</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.009966347252183917</v>
+        <v>0.005264268783521719</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01723678896664017</v>
+        <v>0.008735655844949947</v>
       </c>
       <c r="D3" t="n">
-        <v>0.008137209654827473</v>
+        <v>0.004361896957495262</v>
       </c>
       <c r="E3" t="n">
-        <v>0.006536642543774949</v>
+        <v>0.00203676587008027</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02102995782900991</v>
+        <v>0.007812670236440555</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>NFLX</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.005531920093455033</v>
+        <v>0.002932169405742967</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008137209654827473</v>
+        <v>0.004361896957495262</v>
       </c>
       <c r="D4" t="n">
-        <v>0.006512787474878695</v>
+        <v>0.008216905478657242</v>
       </c>
       <c r="E4" t="n">
-        <v>0.005179372501366403</v>
+        <v>0.001587380490726193</v>
       </c>
       <c r="F4" t="n">
-        <v>0.009154835174815039</v>
+        <v>0.005654344636978705</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>SONY</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.005066206728656621</v>
+        <v>0.002943413966820485</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006536642543774949</v>
+        <v>0.00203676587008027</v>
       </c>
       <c r="D5" t="n">
-        <v>0.005179372501366403</v>
+        <v>0.001587380490726193</v>
       </c>
       <c r="E5" t="n">
-        <v>0.005037285053277179</v>
+        <v>0.004708825346968603</v>
       </c>
       <c r="F5" t="n">
-        <v>0.007048125474664772</v>
+        <v>0.004303903209379216</v>
       </c>
     </row>
     <row r="6">
@@ -1305,19 +3354,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01389558546603102</v>
+        <v>0.009492131692863099</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02102995782900991</v>
+        <v>0.007812670236440555</v>
       </c>
       <c r="D6" t="n">
-        <v>0.009154835174815039</v>
+        <v>0.005654344636978705</v>
       </c>
       <c r="E6" t="n">
-        <v>0.007048125474664772</v>
+        <v>0.004303903209379216</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03698744111675701</v>
+        <v>0.04703696556064762</v>
       </c>
     </row>
   </sheetData>
@@ -1331,7 +3380,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,17 +3401,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>META</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>NFLX</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>SONY</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -1373,232 +3422,962 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44592</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+        <v>43131</v>
+      </c>
+      <c r="B2" t="n">
+        <v>42.11000061035156</v>
+      </c>
+      <c r="C2" t="n">
+        <v>189.8300018310547</v>
+      </c>
+      <c r="D2" t="n">
+        <v>282.2900085449219</v>
+      </c>
+      <c r="E2" t="n">
+        <v>48.13000106811523</v>
+      </c>
+      <c r="F2" t="n">
+        <v>23.74600028991699</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44620</v>
+        <v>43159</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.05474286760602676</v>
+        <v>45.15499877929688</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02719791890137091</v>
+        <v>182.8800048828125</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002055672675547404</v>
+        <v>295.75</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.04238424363730287</v>
+        <v>51</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.06517121129659575</v>
+        <v>23.68266677856445</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44651</v>
+        <v>43190</v>
       </c>
       <c r="B4" t="n">
-        <v>0.07623020644379896</v>
+        <v>42.9375</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07798639305238519</v>
+        <v>161.4199981689453</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04682457700180187</v>
+        <v>295.3500061035156</v>
       </c>
       <c r="E4" t="n">
-        <v>0.05348665914456108</v>
+        <v>48.59000015258789</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2580570390440244</v>
+        <v>18.06399917602539</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44681</v>
+        <v>43220</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0664494855483333</v>
+        <v>41.81499862670898</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2146250312516725</v>
+        <v>175.7200012207031</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.170208596624787</v>
+        <v>317.8800048828125</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.08015487907432017</v>
+        <v>46.04999923706055</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1529633013893834</v>
+        <v>19.91533279418945</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44712</v>
+        <v>43251</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.09350176637471452</v>
+        <v>47.05749893188477</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.06704217827931047</v>
+        <v>192.7200012207031</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.01852949111704771</v>
+        <v>355.5299987792969</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.05212507111433584</v>
+        <v>47.29999923706055</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1665239747838066</v>
+        <v>19.35799980163574</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44742</v>
+        <v>43281</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.08157446068091911</v>
+        <v>46.79750061035156</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1132387033121758</v>
+        <v>197.6000061035156</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.04188015808967638</v>
+        <v>401.3299865722656</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.05546453704453402</v>
+        <v>51.61000061035156</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1161145622332284</v>
+        <v>23.59066772460938</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44773</v>
+        <v>43312</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1825540988436976</v>
+        <v>48.03499984741211</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2724162831223307</v>
+        <v>174.2400054931641</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05250341399028735</v>
+        <v>342.5</v>
       </c>
       <c r="E8" t="n">
-        <v>0.08657959128575166</v>
+        <v>55.5</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3001148050043916</v>
+        <v>19.88800048828125</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44804</v>
+        <v>43343</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.01863963185689654</v>
+        <v>57.21749877929688</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.05128948689894608</v>
+        <v>177.6199951171875</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.05020992765247301</v>
+        <v>376</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.05280147038453009</v>
+        <v>57.22000122070312</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.05722045757952399</v>
+        <v>20.35400009155273</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44834</v>
+        <v>43373</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.108855371330296</v>
+        <v>56.45999908447266</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1046787545163517</v>
+        <v>168.7899932861328</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1078033117973567</v>
+        <v>380.7999877929688</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.09947210333772816</v>
+        <v>61</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.02019552951388892</v>
+        <v>18.53333282470703</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44865</v>
+        <v>43404</v>
       </c>
       <c r="B11" t="n">
-        <v>0.07784765139415839</v>
+        <v>55.11249923706055</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1030618851443315</v>
+        <v>156.3999938964844</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.02901923864815159</v>
+        <v>311.5</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.02336407780016136</v>
+        <v>54.47999954223633</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1659106579291547</v>
+        <v>22.79999923706055</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44895</v>
+        <v>43434</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.03578840816824003</v>
+        <v>45.08250045776367</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.07943169269466033</v>
+        <v>140.9700012207031</v>
       </c>
       <c r="D12" t="n">
-        <v>0.05217121940972658</v>
+        <v>290.8099975585938</v>
       </c>
       <c r="E12" t="n">
-        <v>0.08688065648387799</v>
+        <v>53.29000091552734</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.152664827778497</v>
+        <v>23.44000053405762</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44926</v>
+        <v>43465</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.1262103558256829</v>
+        <v>39.84000015258789</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1293764009252321</v>
+        <v>134.6399993896484</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.126088655466468</v>
+        <v>270.1000061035156</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.06019658875558787</v>
+        <v>48.81000137329102</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.3608543496207357</v>
+        <v>22.61400032043457</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>43496</v>
+      </c>
+      <c r="B14" t="n">
+        <v>42.25</v>
+      </c>
+      <c r="C14" t="n">
+        <v>171.6799926757812</v>
+      </c>
+      <c r="D14" t="n">
+        <v>345.989990234375</v>
+      </c>
+      <c r="E14" t="n">
+        <v>50.54000091552734</v>
+      </c>
+      <c r="F14" t="n">
+        <v>20.77066612243652</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>43524</v>
+      </c>
+      <c r="B15" t="n">
+        <v>43.72750091552734</v>
+      </c>
+      <c r="C15" t="n">
+        <v>163.5</v>
+      </c>
+      <c r="D15" t="n">
+        <v>366.3900146484375</v>
+      </c>
+      <c r="E15" t="n">
+        <v>48.2400016784668</v>
+      </c>
+      <c r="F15" t="n">
+        <v>21.33333206176758</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>43555</v>
+      </c>
+      <c r="B16" t="n">
+        <v>47.52000045776367</v>
+      </c>
+      <c r="C16" t="n">
+        <v>167.1900024414062</v>
+      </c>
+      <c r="D16" t="n">
+        <v>358.25</v>
+      </c>
+      <c r="E16" t="n">
+        <v>42.36000061035156</v>
+      </c>
+      <c r="F16" t="n">
+        <v>18.67733383178711</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>43585</v>
+      </c>
+      <c r="B17" t="n">
+        <v>50.84999847412109</v>
+      </c>
+      <c r="C17" t="n">
+        <v>197.3899993896484</v>
+      </c>
+      <c r="D17" t="n">
+        <v>374.5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>50.54999923706055</v>
+      </c>
+      <c r="F17" t="n">
+        <v>16.28066635131836</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>43616</v>
+      </c>
+      <c r="B18" t="n">
+        <v>44.49750137329102</v>
+      </c>
+      <c r="C18" t="n">
+        <v>180.5399932861328</v>
+      </c>
+      <c r="D18" t="n">
+        <v>349.3399963378906</v>
+      </c>
+      <c r="E18" t="n">
+        <v>48.09999847412109</v>
+      </c>
+      <c r="F18" t="n">
+        <v>12.66133308410645</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>43646</v>
+      </c>
+      <c r="B19" t="n">
+        <v>49.875</v>
+      </c>
+      <c r="C19" t="n">
+        <v>193.1999969482422</v>
+      </c>
+      <c r="D19" t="n">
+        <v>371.5400085449219</v>
+      </c>
+      <c r="E19" t="n">
+        <v>52.84000015258789</v>
+      </c>
+      <c r="F19" t="n">
+        <v>15.01133346557617</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>43677</v>
+      </c>
+      <c r="B20" t="n">
+        <v>55.34249877929688</v>
+      </c>
+      <c r="C20" t="n">
+        <v>198.7599945068359</v>
+      </c>
+      <c r="D20" t="n">
+        <v>331.7699890136719</v>
+      </c>
+      <c r="E20" t="n">
+        <v>57.29000091552734</v>
+      </c>
+      <c r="F20" t="n">
+        <v>16.44533348083496</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>43708</v>
+      </c>
+      <c r="B21" t="n">
+        <v>52.61249923706055</v>
+      </c>
+      <c r="C21" t="n">
+        <v>186.8000030517578</v>
+      </c>
+      <c r="D21" t="n">
+        <v>298.9400024414062</v>
+      </c>
+      <c r="E21" t="n">
+        <v>57.16999816894531</v>
+      </c>
+      <c r="F21" t="n">
+        <v>15.49600028991699</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>43738</v>
+      </c>
+      <c r="B22" t="n">
+        <v>56.14500045776367</v>
+      </c>
+      <c r="C22" t="n">
+        <v>178.6699981689453</v>
+      </c>
+      <c r="D22" t="n">
+        <v>268.8800048828125</v>
+      </c>
+      <c r="E22" t="n">
+        <v>59.18000030517578</v>
+      </c>
+      <c r="F22" t="n">
+        <v>16.26533317565918</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>43769</v>
+      </c>
+      <c r="B23" t="n">
+        <v>62.29249954223633</v>
+      </c>
+      <c r="C23" t="n">
+        <v>198.0899963378906</v>
+      </c>
+      <c r="D23" t="n">
+        <v>291.4500122070312</v>
+      </c>
+      <c r="E23" t="n">
+        <v>61.09000015258789</v>
+      </c>
+      <c r="F23" t="n">
+        <v>21.26666641235352</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>43799</v>
+      </c>
+      <c r="B24" t="n">
+        <v>67</v>
+      </c>
+      <c r="C24" t="n">
+        <v>203.8000030517578</v>
+      </c>
+      <c r="D24" t="n">
+        <v>316.6199951171875</v>
+      </c>
+      <c r="E24" t="n">
+        <v>63.59999847412109</v>
+      </c>
+      <c r="F24" t="n">
+        <v>22.08399963378906</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>43830</v>
+      </c>
+      <c r="B25" t="n">
+        <v>73.41999816894531</v>
+      </c>
+      <c r="C25" t="n">
+        <v>205.5599975585938</v>
+      </c>
+      <c r="D25" t="n">
+        <v>324.9200134277344</v>
+      </c>
+      <c r="E25" t="n">
+        <v>68.02999877929688</v>
+      </c>
+      <c r="F25" t="n">
+        <v>28.08600044250488</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>43861</v>
+      </c>
+      <c r="B26" t="n">
+        <v>80.66999816894531</v>
+      </c>
+      <c r="C26" t="n">
+        <v>208.6900024414062</v>
+      </c>
+      <c r="D26" t="n">
+        <v>347.3900146484375</v>
+      </c>
+      <c r="E26" t="n">
+        <v>70.98999786376953</v>
+      </c>
+      <c r="F26" t="n">
+        <v>43.53333282470703</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>43890</v>
+      </c>
+      <c r="B27" t="n">
+        <v>69.60250091552734</v>
+      </c>
+      <c r="C27" t="n">
+        <v>192.7400054931641</v>
+      </c>
+      <c r="D27" t="n">
+        <v>376.7699890136719</v>
+      </c>
+      <c r="E27" t="n">
+        <v>62.45999908447266</v>
+      </c>
+      <c r="F27" t="n">
+        <v>46.03466796875</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>43921</v>
+      </c>
+      <c r="B28" t="n">
+        <v>65.62249755859375</v>
+      </c>
+      <c r="C28" t="n">
+        <v>170.9299926757812</v>
+      </c>
+      <c r="D28" t="n">
+        <v>383.010009765625</v>
+      </c>
+      <c r="E28" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="F28" t="n">
+        <v>36.19733428955078</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>43951</v>
+      </c>
+      <c r="B29" t="n">
+        <v>73.63249969482422</v>
+      </c>
+      <c r="C29" t="n">
+        <v>209.6900024414062</v>
+      </c>
+      <c r="D29" t="n">
+        <v>424.4400024414062</v>
+      </c>
+      <c r="E29" t="n">
+        <v>64.44000244140625</v>
+      </c>
+      <c r="F29" t="n">
+        <v>57.98799896240234</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B30" t="n">
+        <v>80.28749847412109</v>
+      </c>
+      <c r="C30" t="n">
+        <v>227.4900054931641</v>
+      </c>
+      <c r="D30" t="n">
+        <v>420.2999877929688</v>
+      </c>
+      <c r="E30" t="n">
+        <v>64.76000213623047</v>
+      </c>
+      <c r="F30" t="n">
+        <v>55.66666793823242</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>44012</v>
+      </c>
+      <c r="B31" t="n">
+        <v>91.49500274658203</v>
+      </c>
+      <c r="C31" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="D31" t="n">
+        <v>457.5899963378906</v>
+      </c>
+      <c r="E31" t="n">
+        <v>69.22000122070312</v>
+      </c>
+      <c r="F31" t="n">
+        <v>72.51266479492188</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B32" t="n">
+        <v>106.4150009155273</v>
+      </c>
+      <c r="C32" t="n">
+        <v>255.8500061035156</v>
+      </c>
+      <c r="D32" t="n">
+        <v>494.7999877929688</v>
+      </c>
+      <c r="E32" t="n">
+        <v>77.97000122070312</v>
+      </c>
+      <c r="F32" t="n">
+        <v>101.1366653442383</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>44074</v>
+      </c>
+      <c r="B33" t="n">
+        <v>131</v>
+      </c>
+      <c r="C33" t="n">
+        <v>296.8800048828125</v>
+      </c>
+      <c r="D33" t="n">
+        <v>531.989990234375</v>
+      </c>
+      <c r="E33" t="n">
+        <v>78.98000335693359</v>
+      </c>
+      <c r="F33" t="n">
+        <v>166.7133331298828</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>44104</v>
+      </c>
+      <c r="B34" t="n">
+        <v>117.2600021362305</v>
+      </c>
+      <c r="C34" t="n">
+        <v>266.0799865722656</v>
+      </c>
+      <c r="D34" t="n">
+        <v>504.6300048828125</v>
+      </c>
+      <c r="E34" t="n">
+        <v>77.44000244140625</v>
+      </c>
+      <c r="F34" t="n">
+        <v>144.6433258056641</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>44135</v>
+      </c>
+      <c r="B35" t="n">
+        <v>111.9899978637695</v>
+      </c>
+      <c r="C35" t="n">
+        <v>276.7000122070312</v>
+      </c>
+      <c r="D35" t="n">
+        <v>505.8800048828125</v>
+      </c>
+      <c r="E35" t="n">
+        <v>84.05000305175781</v>
+      </c>
+      <c r="F35" t="n">
+        <v>135.8633270263672</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>44165</v>
+      </c>
+      <c r="B36" t="n">
+        <v>120.9700012207031</v>
+      </c>
+      <c r="C36" t="n">
+        <v>277.7000122070312</v>
+      </c>
+      <c r="D36" t="n">
+        <v>492.5499877929688</v>
+      </c>
+      <c r="E36" t="n">
+        <v>94</v>
+      </c>
+      <c r="F36" t="n">
+        <v>202.6000061035156</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B37" t="n">
+        <v>134.7400054931641</v>
+      </c>
+      <c r="C37" t="n">
+        <v>277.0899963378906</v>
+      </c>
+      <c r="D37" t="n">
+        <v>545.5</v>
+      </c>
+      <c r="E37" t="n">
+        <v>101.4000015258789</v>
+      </c>
+      <c r="F37" t="n">
+        <v>239.5733337402344</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>44227</v>
+      </c>
+      <c r="B38" t="n">
+        <v>136.7400054931641</v>
+      </c>
+      <c r="C38" t="n">
+        <v>266.5599975585938</v>
+      </c>
+      <c r="D38" t="n">
+        <v>541</v>
+      </c>
+      <c r="E38" t="n">
+        <v>97.08999633789062</v>
+      </c>
+      <c r="F38" t="n">
+        <v>280.8033447265625</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>44255</v>
+      </c>
+      <c r="B39" t="n">
+        <v>124.8499984741211</v>
+      </c>
+      <c r="C39" t="n">
+        <v>265.5499877929688</v>
+      </c>
+      <c r="D39" t="n">
+        <v>553.0900268554688</v>
+      </c>
+      <c r="E39" t="n">
+        <v>106.9899978637695</v>
+      </c>
+      <c r="F39" t="n">
+        <v>235.5666656494141</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="B40" t="n">
+        <v>123.5199966430664</v>
+      </c>
+      <c r="C40" t="n">
+        <v>296.5</v>
+      </c>
+      <c r="D40" t="n">
+        <v>528.1300048828125</v>
+      </c>
+      <c r="E40" t="n">
+        <v>106.8000030517578</v>
+      </c>
+      <c r="F40" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>44316</v>
+      </c>
+      <c r="B41" t="n">
+        <v>133.5599975585938</v>
+      </c>
+      <c r="C41" t="n">
+        <v>329.8200073242188</v>
+      </c>
+      <c r="D41" t="n">
+        <v>514.5499877929688</v>
+      </c>
+      <c r="E41" t="n">
+        <v>102.3000030517578</v>
+      </c>
+      <c r="F41" t="n">
+        <v>238.4900054931641</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>44347</v>
+      </c>
+      <c r="B42" t="n">
+        <v>125.8000030517578</v>
+      </c>
+      <c r="C42" t="n">
+        <v>332.8699951171875</v>
+      </c>
+      <c r="D42" t="n">
+        <v>511.760009765625</v>
+      </c>
+      <c r="E42" t="n">
+        <v>100.5299987792969</v>
+      </c>
+      <c r="F42" t="n">
+        <v>211.8633270263672</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="B43" t="n">
+        <v>137.4100036621094</v>
+      </c>
+      <c r="C43" t="n">
+        <v>352.9200134277344</v>
+      </c>
+      <c r="D43" t="n">
+        <v>534.3800048828125</v>
+      </c>
+      <c r="E43" t="n">
+        <v>98.12999725341797</v>
+      </c>
+      <c r="F43" t="n">
+        <v>230.9366607666016</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>44408</v>
+      </c>
+      <c r="B44" t="n">
+        <v>146.3300018310547</v>
+      </c>
+      <c r="C44" t="n">
+        <v>360.7300109863281</v>
+      </c>
+      <c r="D44" t="n">
+        <v>519.7899780273438</v>
+      </c>
+      <c r="E44" t="n">
+        <v>104.7300033569336</v>
+      </c>
+      <c r="F44" t="n">
+        <v>232.5099945068359</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>44439</v>
+      </c>
+      <c r="B45" t="n">
+        <v>152.8000030517578</v>
+      </c>
+      <c r="C45" t="n">
+        <v>382.760009765625</v>
+      </c>
+      <c r="D45" t="n">
+        <v>569.47998046875</v>
+      </c>
+      <c r="E45" t="n">
+        <v>103.8899993896484</v>
+      </c>
+      <c r="F45" t="n">
+        <v>246.7966613769531</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44469</v>
+      </c>
+      <c r="B46" t="n">
+        <v>144.3800048828125</v>
+      </c>
+      <c r="C46" t="n">
+        <v>342.7999877929688</v>
+      </c>
+      <c r="D46" t="n">
+        <v>619</v>
+      </c>
+      <c r="E46" t="n">
+        <v>112</v>
+      </c>
+      <c r="F46" t="n">
+        <v>263.0433349609375</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>44500</v>
+      </c>
+      <c r="B47" t="n">
+        <v>149.9400024414062</v>
+      </c>
+      <c r="C47" t="n">
+        <v>326</v>
+      </c>
+      <c r="D47" t="n">
+        <v>690.969970703125</v>
+      </c>
+      <c r="E47" t="n">
+        <v>116.1900024414062</v>
+      </c>
+      <c r="F47" t="n">
+        <v>371.7366638183594</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="B48" t="n">
+        <v>165.5200042724609</v>
+      </c>
+      <c r="C48" t="n">
+        <v>335.8099975585938</v>
+      </c>
+      <c r="D48" t="n">
+        <v>675.3800048828125</v>
+      </c>
+      <c r="E48" t="n">
+        <v>123.0100021362305</v>
+      </c>
+      <c r="F48" t="n">
+        <v>389.3333435058594</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>44561</v>
+      </c>
+      <c r="B49" t="n">
+        <v>180.5700073242188</v>
+      </c>
+      <c r="C49" t="n">
+        <v>347.2300109863281</v>
+      </c>
+      <c r="D49" t="n">
+        <v>620.6099853515625</v>
+      </c>
+      <c r="E49" t="n">
+        <v>126.6900024414062</v>
+      </c>
+      <c r="F49" t="n">
+        <v>365.1833190917969</v>
       </c>
     </row>
   </sheetData>
@@ -1632,37 +4411,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.02264821733722311</v>
+        <v>0.03554068283499138</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>META</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.04410395799514488</v>
+        <v>0.01677154843697081</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>NFLX</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0354713178471452</v>
+        <v>0.0204180775418303</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>SONY</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02172873311220997</v>
+        <v>0.02299389066675839</v>
       </c>
     </row>
     <row r="6">
@@ -1672,7 +4451,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.06358609346149077</v>
+        <v>0.07945099096840645</v>
       </c>
     </row>
   </sheetData>
@@ -1706,37 +4485,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.009177102142661301</v>
+        <v>0.008383061983918477</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>META</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01702746992245597</v>
+        <v>0.008220616610456167</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>NFLX</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.005578616529499199</v>
+        <v>0.007290380619459669</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>SONY</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.004357835123827136</v>
+        <v>0.004518455825128146</v>
       </c>
     </row>
     <row r="6">
@@ -1746,7 +4525,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03657759094518661</v>
+        <v>0.04699471349261192</v>
       </c>
     </row>
   </sheetData>
@@ -1776,17 +4555,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>META</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>NFLX</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>SONY</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -1802,85 +4581,85 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.009177102142661302</v>
+        <v>0.008383061983918479</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009646588228761181</v>
+        <v>0.004891190906483637</v>
       </c>
       <c r="D2" t="n">
-        <v>0.004512216275430447</v>
+        <v>0.002610487092840899</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00459957786204942</v>
+        <v>0.002588302709194707</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01387483531880321</v>
+        <v>0.01055671584191159</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>META</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.009646588228761181</v>
+        <v>0.004891190906483637</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01702746992245597</v>
+        <v>0.008220616610456167</v>
       </c>
       <c r="D3" t="n">
-        <v>0.007233701520598215</v>
+        <v>0.003964767547778972</v>
       </c>
       <c r="E3" t="n">
-        <v>0.005945682089565337</v>
+        <v>0.001951436088382683</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02073631181646194</v>
+        <v>0.006718762857110172</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>NFLX</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.004512216275430447</v>
+        <v>0.002610487092840899</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007233701520598215</v>
+        <v>0.003964767547778972</v>
       </c>
       <c r="D4" t="n">
-        <v>0.005578616529499199</v>
+        <v>0.007290380619459669</v>
       </c>
       <c r="E4" t="n">
-        <v>0.004159200015980118</v>
+        <v>0.001443351362343142</v>
       </c>
       <c r="F4" t="n">
-        <v>0.008428006513170558</v>
+        <v>0.005610022721198872</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>SONY</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.00459957786204942</v>
+        <v>0.002588302709194707</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005945682089565337</v>
+        <v>0.001951436088382683</v>
       </c>
       <c r="D5" t="n">
-        <v>0.004159200015980118</v>
+        <v>0.001443351362343142</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004357835123827135</v>
+        <v>0.004518455825128144</v>
       </c>
       <c r="F5" t="n">
-        <v>0.007209677617389912</v>
+        <v>0.00352305776251023</v>
       </c>
     </row>
     <row r="6">
@@ -1890,19 +4669,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01387483531880321</v>
+        <v>0.01055671584191159</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02073631181646194</v>
+        <v>0.006718762857110172</v>
       </c>
       <c r="D6" t="n">
-        <v>0.008428006513170558</v>
+        <v>0.005610022721198872</v>
       </c>
       <c r="E6" t="n">
-        <v>0.007209677617389912</v>
+        <v>0.00352305776251023</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03657759094518661</v>
+        <v>0.0469947134926119</v>
       </c>
     </row>
   </sheetData>
@@ -1916,7 +4695,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1937,17 +4716,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>META</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>NFLX</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>SONY</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -1958,232 +4737,962 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44592</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+        <v>43131</v>
+      </c>
+      <c r="B2" t="n">
+        <v>41.625</v>
+      </c>
+      <c r="C2" t="n">
+        <v>185.2200012207031</v>
+      </c>
+      <c r="D2" t="n">
+        <v>269.5799865722656</v>
+      </c>
+      <c r="E2" t="n">
+        <v>47.7400016784668</v>
+      </c>
+      <c r="F2" t="n">
+        <v>23.01266670227051</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44620</v>
+        <v>43159</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.04176745950380623</v>
+        <v>44.51250076293945</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04538791766162142</v>
+        <v>178.1399993896484</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002896884083780193</v>
+        <v>290.7799987792969</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.04364002784304455</v>
+        <v>50.43999862670898</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.05491560272879292</v>
+        <v>22.81466674804688</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44651</v>
+        <v>43190</v>
       </c>
       <c r="B4" t="n">
-        <v>0.07369329409868208</v>
+        <v>41.72499847412109</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08023533229362512</v>
+        <v>154.1399993896484</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04850958308466402</v>
+        <v>275.8999938964844</v>
       </c>
       <c r="E4" t="n">
-        <v>0.05081916262265351</v>
+        <v>47.66999816894531</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3215008845006846</v>
+        <v>16.54733276367188</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44681</v>
+        <v>43220</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.09833712440760634</v>
+        <v>40.45999908447266</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2536214615142667</v>
+        <v>171.7100067138672</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1813349855286568</v>
+        <v>310.1199951171875</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1019520385689676</v>
+        <v>45.45999908447266</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1919304612841397</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44712</v>
+        <v>43251</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.06620034125347773</v>
+        <v>46.53499984741211</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.04892083821781856</v>
+        <v>187.4799957275391</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.01525289025381193</v>
+        <v>350.2099914550781</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.02737796500621614</v>
+        <v>46.86000061035156</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1560574761752425</v>
+        <v>18.86199951171875</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44742</v>
+        <v>43281</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.08900839274985128</v>
+        <v>45.72750091552734</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1137238475179059</v>
+        <v>193.9600067138672</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.047542560753986</v>
+        <v>390.5499877929688</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.05960658615947845</v>
+        <v>51.20000076293945</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1057434524607034</v>
+        <v>22.82733345031738</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44773</v>
+        <v>43312</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1923450318139526</v>
+        <v>47.33499908447266</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2915529457448971</v>
+        <v>170</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05911004738729497</v>
+        <v>328</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0938315996798369</v>
+        <v>53.5099983215332</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2752250909074938</v>
+        <v>19.27133369445801</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44804</v>
+        <v>43343</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.0147962420711697</v>
+        <v>56.5</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.04282158176514261</v>
+        <v>174.9799957275391</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.04360516903974632</v>
+        <v>367.0799865722656</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.05530860008128313</v>
+        <v>56.63000106811523</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.02611970041382972</v>
+        <v>19.90666770935059</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44834</v>
+        <v>43373</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.1218022111746888</v>
+        <v>56.00500106811523</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1096733608976368</v>
+        <v>162.5599975585938</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1162489597161891</v>
+        <v>373.7300109863281</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1094401420206624</v>
+        <v>60.47000122070312</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.03436222516383791</v>
+        <v>17.37066650390625</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44865</v>
+        <v>43404</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1008695519488791</v>
+        <v>54.15499877929688</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1072314681568102</v>
+        <v>148.9600067138672</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.01653405443728029</v>
+        <v>295.0499877929688</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.00678899093395946</v>
+        <v>53.70000076293945</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.15441764236217</v>
+        <v>21.94000053405762</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44895</v>
+        <v>43434</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.07484199087827326</v>
+        <v>44.25749969482422</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.09142345919966488</v>
+        <v>137.3600006103516</v>
       </c>
       <c r="D12" t="n">
-        <v>0.004681791831190107</v>
+        <v>283.0599975585938</v>
       </c>
       <c r="E12" t="n">
-        <v>0.03768118946076116</v>
+        <v>52.58000183105469</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1861313738135147</v>
+        <v>22.55066680908203</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44926</v>
+        <v>43465</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.09334758065960747</v>
+        <v>39.11999893188477</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.09898391433872744</v>
+        <v>129.9499969482422</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.08313915088279422</v>
+        <v>260</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.013341102893769</v>
+        <v>47.91999816894531</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.337042591137113</v>
+        <v>21.68400001525879</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>43496</v>
+      </c>
+      <c r="B14" t="n">
+        <v>41.13999938964844</v>
+      </c>
+      <c r="C14" t="n">
+        <v>165</v>
+      </c>
+      <c r="D14" t="n">
+        <v>338.0899963378906</v>
+      </c>
+      <c r="E14" t="n">
+        <v>49.68999862670898</v>
+      </c>
+      <c r="F14" t="n">
+        <v>19.60000038146973</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>43524</v>
+      </c>
+      <c r="B15" t="n">
+        <v>43.22999954223633</v>
+      </c>
+      <c r="C15" t="n">
+        <v>160.8600006103516</v>
+      </c>
+      <c r="D15" t="n">
+        <v>357.7099914550781</v>
+      </c>
+      <c r="E15" t="n">
+        <v>47.91999816894531</v>
+      </c>
+      <c r="F15" t="n">
+        <v>20.72066688537598</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>43555</v>
+      </c>
+      <c r="B16" t="n">
+        <v>47.1349983215332</v>
+      </c>
+      <c r="C16" t="n">
+        <v>164.8099975585938</v>
+      </c>
+      <c r="D16" t="n">
+        <v>353.7099914550781</v>
+      </c>
+      <c r="E16" t="n">
+        <v>41.97999954223633</v>
+      </c>
+      <c r="F16" t="n">
+        <v>18.29999923706055</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>43585</v>
+      </c>
+      <c r="B17" t="n">
+        <v>49.77750015258789</v>
+      </c>
+      <c r="C17" t="n">
+        <v>192.2799987792969</v>
+      </c>
+      <c r="D17" t="n">
+        <v>368.3500061035156</v>
+      </c>
+      <c r="E17" t="n">
+        <v>50.02999877929688</v>
+      </c>
+      <c r="F17" t="n">
+        <v>15.80000019073486</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>43616</v>
+      </c>
+      <c r="B18" t="n">
+        <v>43.74750137329102</v>
+      </c>
+      <c r="C18" t="n">
+        <v>177.1600036621094</v>
+      </c>
+      <c r="D18" t="n">
+        <v>342.9200134277344</v>
+      </c>
+      <c r="E18" t="n">
+        <v>47.70999908447266</v>
+      </c>
+      <c r="F18" t="n">
+        <v>12.2733325958252</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>43646</v>
+      </c>
+      <c r="B19" t="n">
+        <v>49.26250076293945</v>
+      </c>
+      <c r="C19" t="n">
+        <v>189.9400024414062</v>
+      </c>
+      <c r="D19" t="n">
+        <v>364.8699951171875</v>
+      </c>
+      <c r="E19" t="n">
+        <v>52.18999862670898</v>
+      </c>
+      <c r="F19" t="n">
+        <v>14.72000026702881</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>43677</v>
+      </c>
+      <c r="B20" t="n">
+        <v>52.82500076293945</v>
+      </c>
+      <c r="C20" t="n">
+        <v>192.6799926757812</v>
+      </c>
+      <c r="D20" t="n">
+        <v>318.5299987792969</v>
+      </c>
+      <c r="E20" t="n">
+        <v>56.27999877929688</v>
+      </c>
+      <c r="F20" t="n">
+        <v>15.77666664123535</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>43708</v>
+      </c>
+      <c r="B21" t="n">
+        <v>51.79999923706055</v>
+      </c>
+      <c r="C21" t="n">
+        <v>183.4600067138672</v>
+      </c>
+      <c r="D21" t="n">
+        <v>290.8500061035156</v>
+      </c>
+      <c r="E21" t="n">
+        <v>56.56999969482422</v>
+      </c>
+      <c r="F21" t="n">
+        <v>14.94733333587646</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>43738</v>
+      </c>
+      <c r="B22" t="n">
+        <v>55.1974983215332</v>
+      </c>
+      <c r="C22" t="n">
+        <v>176.8500061035156</v>
+      </c>
+      <c r="D22" t="n">
+        <v>262.7799987792969</v>
+      </c>
+      <c r="E22" t="n">
+        <v>58.09999847412109</v>
+      </c>
+      <c r="F22" t="n">
+        <v>15.74066734313965</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>43769</v>
+      </c>
+      <c r="B23" t="n">
+        <v>59.31499862670898</v>
+      </c>
+      <c r="C23" t="n">
+        <v>188.25</v>
+      </c>
+      <c r="D23" t="n">
+        <v>284.7799987792969</v>
+      </c>
+      <c r="E23" t="n">
+        <v>60.40999984741211</v>
+      </c>
+      <c r="F23" t="n">
+        <v>20.86666679382324</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>43799</v>
+      </c>
+      <c r="B24" t="n">
+        <v>66.47499847412109</v>
+      </c>
+      <c r="C24" t="n">
+        <v>201.2100067138672</v>
+      </c>
+      <c r="D24" t="n">
+        <v>313.3399963378906</v>
+      </c>
+      <c r="E24" t="n">
+        <v>63.22000122070312</v>
+      </c>
+      <c r="F24" t="n">
+        <v>21.83333206176758</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>43830</v>
+      </c>
+      <c r="B25" t="n">
+        <v>72.37999725341797</v>
+      </c>
+      <c r="C25" t="n">
+        <v>203.6000061035156</v>
+      </c>
+      <c r="D25" t="n">
+        <v>321.0899963378906</v>
+      </c>
+      <c r="E25" t="n">
+        <v>67.51000213623047</v>
+      </c>
+      <c r="F25" t="n">
+        <v>26.80533218383789</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>43861</v>
+      </c>
+      <c r="B26" t="n">
+        <v>77.07250213623047</v>
+      </c>
+      <c r="C26" t="n">
+        <v>201.0599975585938</v>
+      </c>
+      <c r="D26" t="n">
+        <v>340.9800109863281</v>
+      </c>
+      <c r="E26" t="n">
+        <v>69.91000366210938</v>
+      </c>
+      <c r="F26" t="n">
+        <v>42.16799926757812</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>43890</v>
+      </c>
+      <c r="B27" t="n">
+        <v>64.09249877929688</v>
+      </c>
+      <c r="C27" t="n">
+        <v>181.8200073242188</v>
+      </c>
+      <c r="D27" t="n">
+        <v>356.7999877929688</v>
+      </c>
+      <c r="E27" t="n">
+        <v>59.34999847412109</v>
+      </c>
+      <c r="F27" t="n">
+        <v>40.76800155639648</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>43921</v>
+      </c>
+      <c r="B28" t="n">
+        <v>63</v>
+      </c>
+      <c r="C28" t="n">
+        <v>164.1999969482422</v>
+      </c>
+      <c r="D28" t="n">
+        <v>366.4400024414062</v>
+      </c>
+      <c r="E28" t="n">
+        <v>58.61000061035156</v>
+      </c>
+      <c r="F28" t="n">
+        <v>33.13333129882812</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>43951</v>
+      </c>
+      <c r="B29" t="n">
+        <v>72.08750152587891</v>
+      </c>
+      <c r="C29" t="n">
+        <v>201.5700073242188</v>
+      </c>
+      <c r="D29" t="n">
+        <v>408</v>
+      </c>
+      <c r="E29" t="n">
+        <v>63.40000152587891</v>
+      </c>
+      <c r="F29" t="n">
+        <v>50.90000152587891</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B30" t="n">
+        <v>79.11750030517578</v>
+      </c>
+      <c r="C30" t="n">
+        <v>222.8800048828125</v>
+      </c>
+      <c r="D30" t="n">
+        <v>411.8500061035156</v>
+      </c>
+      <c r="E30" t="n">
+        <v>63.65000152587891</v>
+      </c>
+      <c r="F30" t="n">
+        <v>53.61399841308594</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>44012</v>
+      </c>
+      <c r="B31" t="n">
+        <v>90</v>
+      </c>
+      <c r="C31" t="n">
+        <v>218.4700012207031</v>
+      </c>
+      <c r="D31" t="n">
+        <v>447</v>
+      </c>
+      <c r="E31" t="n">
+        <v>68.45999908447266</v>
+      </c>
+      <c r="F31" t="n">
+        <v>66.91533660888672</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B32" t="n">
+        <v>100.8249969482422</v>
+      </c>
+      <c r="C32" t="n">
+        <v>249</v>
+      </c>
+      <c r="D32" t="n">
+        <v>484.5</v>
+      </c>
+      <c r="E32" t="n">
+        <v>76.91000366210938</v>
+      </c>
+      <c r="F32" t="n">
+        <v>94.73200225830078</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>44074</v>
+      </c>
+      <c r="B33" t="n">
+        <v>126</v>
+      </c>
+      <c r="C33" t="n">
+        <v>291.5499877929688</v>
+      </c>
+      <c r="D33" t="n">
+        <v>517.5800170898438</v>
+      </c>
+      <c r="E33" t="n">
+        <v>78.44000244140625</v>
+      </c>
+      <c r="F33" t="n">
+        <v>146.7033386230469</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>44104</v>
+      </c>
+      <c r="B34" t="n">
+        <v>113.620002746582</v>
+      </c>
+      <c r="C34" t="n">
+        <v>260.1000061035156</v>
+      </c>
+      <c r="D34" t="n">
+        <v>489.2699890136719</v>
+      </c>
+      <c r="E34" t="n">
+        <v>76.27999877929688</v>
+      </c>
+      <c r="F34" t="n">
+        <v>140.1566619873047</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>44135</v>
+      </c>
+      <c r="B35" t="n">
+        <v>107.7200012207031</v>
+      </c>
+      <c r="C35" t="n">
+        <v>259.1000061035156</v>
+      </c>
+      <c r="D35" t="n">
+        <v>472.2099914550781</v>
+      </c>
+      <c r="E35" t="n">
+        <v>82.58000183105469</v>
+      </c>
+      <c r="F35" t="n">
+        <v>126.370002746582</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>44165</v>
+      </c>
+      <c r="B36" t="n">
+        <v>116.8099975585938</v>
+      </c>
+      <c r="C36" t="n">
+        <v>271.010009765625</v>
+      </c>
+      <c r="D36" t="n">
+        <v>481.2699890136719</v>
+      </c>
+      <c r="E36" t="n">
+        <v>92.62000274658203</v>
+      </c>
+      <c r="F36" t="n">
+        <v>184.836669921875</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B37" t="n">
+        <v>131.7200012207031</v>
+      </c>
+      <c r="C37" t="n">
+        <v>269.8099975585938</v>
+      </c>
+      <c r="D37" t="n">
+        <v>523.1500244140625</v>
+      </c>
+      <c r="E37" t="n">
+        <v>100.6100006103516</v>
+      </c>
+      <c r="F37" t="n">
+        <v>230.3733367919922</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>44227</v>
+      </c>
+      <c r="B38" t="n">
+        <v>130.2100067138672</v>
+      </c>
+      <c r="C38" t="n">
+        <v>254.8500061035156</v>
+      </c>
+      <c r="D38" t="n">
+        <v>530.1799926757812</v>
+      </c>
+      <c r="E38" t="n">
+        <v>95.08999633789062</v>
+      </c>
+      <c r="F38" t="n">
+        <v>260.0333251953125</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>44255</v>
+      </c>
+      <c r="B39" t="n">
+        <v>121.1999969482422</v>
+      </c>
+      <c r="C39" t="n">
+        <v>256.4700012207031</v>
+      </c>
+      <c r="D39" t="n">
+        <v>538</v>
+      </c>
+      <c r="E39" t="n">
+        <v>105.370002746582</v>
+      </c>
+      <c r="F39" t="n">
+        <v>219.836669921875</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="B40" t="n">
+        <v>121.1500015258789</v>
+      </c>
+      <c r="C40" t="n">
+        <v>288.6099853515625</v>
+      </c>
+      <c r="D40" t="n">
+        <v>515.4400024414062</v>
+      </c>
+      <c r="E40" t="n">
+        <v>105.2600021362305</v>
+      </c>
+      <c r="F40" t="n">
+        <v>213.7033386230469</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>44316</v>
+      </c>
+      <c r="B41" t="n">
+        <v>131.0700073242188</v>
+      </c>
+      <c r="C41" t="n">
+        <v>324.5</v>
+      </c>
+      <c r="D41" t="n">
+        <v>505</v>
+      </c>
+      <c r="E41" t="n">
+        <v>100</v>
+      </c>
+      <c r="F41" t="n">
+        <v>222.0466613769531</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>44347</v>
+      </c>
+      <c r="B42" t="n">
+        <v>124.5500030517578</v>
+      </c>
+      <c r="C42" t="n">
+        <v>328.3299865722656</v>
+      </c>
+      <c r="D42" t="n">
+        <v>502.5299987792969</v>
+      </c>
+      <c r="E42" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="F42" t="n">
+        <v>207.4600067138672</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="B43" t="n">
+        <v>135.8699951171875</v>
+      </c>
+      <c r="C43" t="n">
+        <v>347.1700134277344</v>
+      </c>
+      <c r="D43" t="n">
+        <v>526.8200073242188</v>
+      </c>
+      <c r="E43" t="n">
+        <v>96.90000152587891</v>
+      </c>
+      <c r="F43" t="n">
+        <v>226.0466613769531</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>44408</v>
+      </c>
+      <c r="B44" t="n">
+        <v>144.1100006103516</v>
+      </c>
+      <c r="C44" t="n">
+        <v>352.9400024414062</v>
+      </c>
+      <c r="D44" t="n">
+        <v>510.9599914550781</v>
+      </c>
+      <c r="E44" t="n">
+        <v>103.620002746582</v>
+      </c>
+      <c r="F44" t="n">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>44439</v>
+      </c>
+      <c r="B45" t="n">
+        <v>151.2899932861328</v>
+      </c>
+      <c r="C45" t="n">
+        <v>378.7999877929688</v>
+      </c>
+      <c r="D45" t="n">
+        <v>561.6099853515625</v>
+      </c>
+      <c r="E45" t="n">
+        <v>102.7600021362305</v>
+      </c>
+      <c r="F45" t="n">
+        <v>242.1466674804688</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44469</v>
+      </c>
+      <c r="B46" t="n">
+        <v>141.2799987792969</v>
+      </c>
+      <c r="C46" t="n">
+        <v>338.1499938964844</v>
+      </c>
+      <c r="D46" t="n">
+        <v>608.0499877929688</v>
+      </c>
+      <c r="E46" t="n">
+        <v>110.1399993896484</v>
+      </c>
+      <c r="F46" t="n">
+        <v>258.3333435058594</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>44500</v>
+      </c>
+      <c r="B47" t="n">
+        <v>146.4100036621094</v>
+      </c>
+      <c r="C47" t="n">
+        <v>319.6000061035156</v>
+      </c>
+      <c r="D47" t="n">
+        <v>671.239990234375</v>
+      </c>
+      <c r="E47" t="n">
+        <v>114.75</v>
+      </c>
+      <c r="F47" t="n">
+        <v>357.7366638183594</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="B48" t="n">
+        <v>159.9199981689453</v>
+      </c>
+      <c r="C48" t="n">
+        <v>323.4299926757812</v>
+      </c>
+      <c r="D48" t="n">
+        <v>640.010009765625</v>
+      </c>
+      <c r="E48" t="n">
+        <v>120.5899963378906</v>
+      </c>
+      <c r="F48" t="n">
+        <v>372.6666564941406</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>44561</v>
+      </c>
+      <c r="B49" t="n">
+        <v>178.0899963378906</v>
+      </c>
+      <c r="C49" t="n">
+        <v>343.2200012207031</v>
+      </c>
+      <c r="D49" t="n">
+        <v>611.239990234375</v>
+      </c>
+      <c r="E49" t="n">
+        <v>125.7600021362305</v>
+      </c>
+      <c r="F49" t="n">
+        <v>351.0499877929688</v>
       </c>
     </row>
   </sheetData>
